--- a/data/results/resultados.xlsx
+++ b/data/results/resultados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,375 +473,123 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LM Academia</t>
+          <t>Club Mega Gym - Academia, Ginástica, Natação e muito mais.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sala de fitness</t>
+          <t>Academia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(22)</t>
+          <t>(519)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rua Clemente Cunha Ferreira, 536 - Vila Perracini, Poá - SP, 08552-290</t>
+          <t>Shopping São Francisco - Av. Dr. Cândido Motta Filho, 545 - Cidade São Francisco, São Paulo - SP, 05351-000</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Academias</t>
+          <t>Restaurantes</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Academia Target Fitclub Poá</t>
+          <t>Nhô Brasil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Academia</t>
+          <t>Restaurante</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(190)</t>
+          <t>(189)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Av. Lucas Nogueira Garcez, 945 - Vila Varela, Poá - SP, 08563-115</t>
+          <t>Av. Mutinga, 3725 - Jardim Santo Elias, São Paulo - SP, 05110-000</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Academias</t>
+          <t>Sorveterias</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Academia Fama Poá</t>
+          <t>Belari Gelato Artesanal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sala de fitness</t>
+          <t>Sorveteria</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(54)</t>
+          <t>(4.123)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>R. Tanque Verde, 45 - Vila Perracini, Poá - SP, 08552-220</t>
+          <t>Av. Sport Club Corinthians Paulista, 366 - Loja 4 - Km 18, Osasco - SP, 06132-380</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Academias</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Academia Smart Fit - Avenida Brasil</t>
+          <t>Continental Shopping</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Academia</t>
+          <t>Shopping center</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(239)</t>
+          <t>(22.284)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Av. Brasil, 62 - Vila Correa, Ferraz de Vasconcelos - SP, 08502-000</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Restaurantes</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Dr. Churrasco Assados e Grelhados</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Restaurante</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4,8</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>(196)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Av. Brasil, 339 - Vila Correa, Ferraz de Vasconcelos - SP, 08502-000</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Restaurantes</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Lanchonete D'FAMILIA</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Restaurante</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4,8</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>(54)</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Rua Clemente Cunha Ferreira, 539 - Vila Perracini, Poá - SP, 08552-330</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Restaurantes</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Aylla Cozinha Oriental</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Restaurante asiático</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4,9</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>(940)</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>R. Padre Eustáquio, 163 - Vila Idalina, Poá - SP, 08562-400</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Restaurantes</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Mana Caicara</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Restaurante de frutos do mar</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4,5</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>(2.042)</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Av. Vital Brasil, 300 - Vila Acoreana, Poá - SP, 08557-000</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Sorveterias</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>The Best Açaí - Lajeado velho (Guaianases)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Sorveteria</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4,9</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Estr. do Lageado Velho, 644 - Vila Iolanda(Lajeado), São Paulo - SP, 08451-056</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Sorveterias</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Milk Belly Poá</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Sorveteria</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4,8</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>(70)</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Av. Nove de Julho, 143 - Centro, Poá - SP, 08550-100</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Sorveterias</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Frutico</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Sorveteria</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4,5</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>(558)</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Av. Dom Pedro II, 192 - Vila Romanopolis, Ferraz de Vasconcelos - SP, 08500-400</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Sorveterias</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Sorveteria Spumoni</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Sorveteria especializada em sundaes</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4,5</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>(2.177)</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Av. Nove de Julho, 936 - Vila das Acácias, Poá - SP, 08557-100</t>
+          <t>Av. Leão Machado, 100 - Parque Continental, São Paulo - SP, 05328-020</t>
         </is>
       </c>
     </row>
